--- a/Pokemon_Server/data/pkm_conquest_warriors.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_warriors.xlsx
@@ -955,9 +955,6 @@
     <t>tsunashige</t>
   </si>
   <si>
-    <t>Gen'an</t>
-  </si>
-  <si>
     <t>genan</t>
   </si>
   <si>
@@ -1235,6 +1232,9 @@
   </si>
   <si>
     <t>otsu</t>
+  </si>
+  <si>
+    <t>Gen''an</t>
   </si>
 </sst>
 </file>
@@ -4121,10 +4121,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" t="s">
         <v>313</v>
-      </c>
-      <c r="C156" t="s">
-        <v>314</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -4138,10 +4138,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" t="s">
         <v>315</v>
-      </c>
-      <c r="C157" t="s">
-        <v>316</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -4155,10 +4155,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158" t="s">
         <v>317</v>
-      </c>
-      <c r="C158" t="s">
-        <v>318</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -4172,10 +4172,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" t="s">
         <v>319</v>
-      </c>
-      <c r="C159" t="s">
-        <v>320</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -4189,10 +4189,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
         <v>321</v>
-      </c>
-      <c r="C160" t="s">
-        <v>322</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -4206,10 +4206,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" t="s">
         <v>323</v>
-      </c>
-      <c r="C161" t="s">
-        <v>324</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>324</v>
+      </c>
+      <c r="C162" t="s">
         <v>325</v>
-      </c>
-      <c r="C162" t="s">
-        <v>326</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4240,10 +4240,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>326</v>
+      </c>
+      <c r="C163" t="s">
         <v>327</v>
-      </c>
-      <c r="C163" t="s">
-        <v>328</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -4257,10 +4257,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>328</v>
+      </c>
+      <c r="C164" t="s">
         <v>329</v>
-      </c>
-      <c r="C164" t="s">
-        <v>330</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -4274,10 +4274,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" t="s">
         <v>331</v>
-      </c>
-      <c r="C165" t="s">
-        <v>332</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -4291,10 +4291,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>332</v>
+      </c>
+      <c r="C166" t="s">
         <v>333</v>
-      </c>
-      <c r="C166" t="s">
-        <v>334</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -4308,10 +4308,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" t="s">
         <v>335</v>
-      </c>
-      <c r="C167" t="s">
-        <v>336</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -4325,10 +4325,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>336</v>
+      </c>
+      <c r="C168" t="s">
         <v>337</v>
-      </c>
-      <c r="C168" t="s">
-        <v>338</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4342,10 +4342,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>338</v>
+      </c>
+      <c r="C169" t="s">
         <v>339</v>
-      </c>
-      <c r="C169" t="s">
-        <v>340</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -4359,10 +4359,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170" t="s">
         <v>341</v>
-      </c>
-      <c r="C170" t="s">
-        <v>342</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -4376,10 +4376,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171" t="s">
         <v>343</v>
-      </c>
-      <c r="C171" t="s">
-        <v>344</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -4393,10 +4393,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C172" t="s">
         <v>345</v>
-      </c>
-      <c r="C172" t="s">
-        <v>346</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -4410,10 +4410,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173" t="s">
         <v>347</v>
-      </c>
-      <c r="C173" t="s">
-        <v>348</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -4427,10 +4427,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" t="s">
         <v>349</v>
-      </c>
-      <c r="C174" t="s">
-        <v>350</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -4444,10 +4444,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" t="s">
         <v>351</v>
-      </c>
-      <c r="C175" t="s">
-        <v>352</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -4461,10 +4461,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C176" t="s">
         <v>353</v>
-      </c>
-      <c r="C176" t="s">
-        <v>354</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -4478,10 +4478,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177" t="s">
         <v>355</v>
-      </c>
-      <c r="C177" t="s">
-        <v>356</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -4495,10 +4495,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" t="s">
         <v>357</v>
-      </c>
-      <c r="C178" t="s">
-        <v>358</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -4512,10 +4512,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" t="s">
         <v>359</v>
-      </c>
-      <c r="C179" t="s">
-        <v>360</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4529,10 +4529,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180" t="s">
         <v>361</v>
-      </c>
-      <c r="C180" t="s">
-        <v>362</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -4546,10 +4546,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181" t="s">
         <v>363</v>
-      </c>
-      <c r="C181" t="s">
-        <v>364</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4563,10 +4563,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>364</v>
+      </c>
+      <c r="C182" t="s">
         <v>365</v>
-      </c>
-      <c r="C182" t="s">
-        <v>366</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4580,10 +4580,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" t="s">
         <v>367</v>
-      </c>
-      <c r="C183" t="s">
-        <v>368</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4597,10 +4597,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" t="s">
         <v>369</v>
-      </c>
-      <c r="C184" t="s">
-        <v>370</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4614,10 +4614,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" t="s">
         <v>371</v>
-      </c>
-      <c r="C185" t="s">
-        <v>372</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4631,10 +4631,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>372</v>
+      </c>
+      <c r="C186" t="s">
         <v>373</v>
-      </c>
-      <c r="C186" t="s">
-        <v>374</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4648,10 +4648,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>374</v>
+      </c>
+      <c r="C187" t="s">
         <v>375</v>
-      </c>
-      <c r="C187" t="s">
-        <v>376</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4665,10 +4665,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188" t="s">
         <v>377</v>
-      </c>
-      <c r="C188" t="s">
-        <v>378</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -4682,10 +4682,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" t="s">
         <v>379</v>
-      </c>
-      <c r="C189" t="s">
-        <v>380</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4699,10 +4699,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" t="s">
         <v>381</v>
-      </c>
-      <c r="C190" t="s">
-        <v>382</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4716,10 +4716,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" t="s">
         <v>383</v>
-      </c>
-      <c r="C191" t="s">
-        <v>384</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -4733,10 +4733,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" t="s">
         <v>385</v>
-      </c>
-      <c r="C192" t="s">
-        <v>386</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4750,10 +4750,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>386</v>
+      </c>
+      <c r="C193" t="s">
         <v>387</v>
-      </c>
-      <c r="C193" t="s">
-        <v>388</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4767,10 +4767,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" t="s">
         <v>389</v>
-      </c>
-      <c r="C194" t="s">
-        <v>390</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4784,10 +4784,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>390</v>
+      </c>
+      <c r="C195" t="s">
         <v>391</v>
-      </c>
-      <c r="C195" t="s">
-        <v>392</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4801,10 +4801,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>392</v>
+      </c>
+      <c r="C196" t="s">
         <v>393</v>
-      </c>
-      <c r="C196" t="s">
-        <v>394</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -4818,10 +4818,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" t="s">
         <v>395</v>
-      </c>
-      <c r="C197" t="s">
-        <v>396</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -4835,10 +4835,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198" t="s">
         <v>397</v>
-      </c>
-      <c r="C198" t="s">
-        <v>398</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -4852,10 +4852,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>398</v>
+      </c>
+      <c r="C199" t="s">
         <v>399</v>
-      </c>
-      <c r="C199" t="s">
-        <v>400</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -4869,10 +4869,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>400</v>
+      </c>
+      <c r="C200" t="s">
         <v>401</v>
-      </c>
-      <c r="C200" t="s">
-        <v>402</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -4886,10 +4886,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>402</v>
+      </c>
+      <c r="C201" t="s">
         <v>403</v>
-      </c>
-      <c r="C201" t="s">
-        <v>404</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -4903,10 +4903,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202" t="s">
         <v>405</v>
-      </c>
-      <c r="C202" t="s">
-        <v>406</v>
       </c>
       <c r="D202">
         <v>1</v>
